--- a/data/raw_data/region.xlsx
+++ b/data/raw_data/region.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>gouvernorat</t>
   </si>
@@ -98,6 +98,147 @@
   </si>
   <si>
     <t>Zaghouan</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>10.19</t>
+  </si>
+  <si>
+    <t>36.86</t>
+  </si>
+  <si>
+    <t>36.73</t>
+  </si>
+  <si>
+    <t>36.81</t>
+  </si>
+  <si>
+    <t>9.18</t>
+  </si>
+  <si>
+    <t>37.27</t>
+  </si>
+  <si>
+    <t>36.74</t>
+  </si>
+  <si>
+    <t>10.23</t>
+  </si>
+  <si>
+    <t>9.87</t>
+  </si>
+  <si>
+    <t>33.88</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>34.42</t>
+  </si>
+  <si>
+    <t>8.78</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>35.67</t>
+  </si>
+  <si>
+    <t>35.16</t>
+  </si>
+  <si>
+    <t>8.83</t>
+  </si>
+  <si>
+    <t>33.70</t>
+  </si>
+  <si>
+    <t>8.96</t>
+  </si>
+  <si>
+    <t>36.80</t>
+  </si>
+  <si>
+    <t>36.17</t>
+  </si>
+  <si>
+    <t>8.70</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
+    <t>11.06</t>
+  </si>
+  <si>
+    <t>33.35</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>35.77</t>
+  </si>
+  <si>
+    <t>10.82</t>
+  </si>
+  <si>
+    <t>36.45</t>
+  </si>
+  <si>
+    <t>10.73</t>
+  </si>
+  <si>
+    <t>34.74</t>
+  </si>
+  <si>
+    <t>10.76</t>
+  </si>
+  <si>
+    <t>35.03</t>
+  </si>
+  <si>
+    <t>9.48</t>
+  </si>
+  <si>
+    <t>36.08</t>
+  </si>
+  <si>
+    <t>9.37</t>
+  </si>
+  <si>
+    <t>35.82</t>
+  </si>
+  <si>
+    <t>10.63</t>
+  </si>
+  <si>
+    <t>32.92</t>
+  </si>
+  <si>
+    <t>10.45</t>
+  </si>
+  <si>
+    <t>33.91</t>
+  </si>
+  <si>
+    <t>8.13</t>
+  </si>
+  <si>
+    <t>10.16</t>
+  </si>
+  <si>
+    <t>36.40</t>
+  </si>
+  <si>
+    <t>10.14</t>
   </si>
 </sst>
 </file>
@@ -439,15 +580,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,8 +601,14 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -474,8 +621,14 @@
       <c r="D2">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -488,8 +641,14 @@
       <c r="D3">
         <v>17.829999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -502,8 +661,14 @@
       <c r="D4">
         <v>13.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -516,8 +681,14 @@
       <c r="D5">
         <v>13.11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -530,8 +701,14 @@
       <c r="D6">
         <v>19.059999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -544,8 +721,14 @@
       <c r="D7">
         <v>26.27</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -558,8 +741,14 @@
       <c r="D8">
         <v>25.54</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -572,8 +761,14 @@
       <c r="D9">
         <v>16.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -586,8 +781,14 @@
       <c r="D10">
         <v>22.35</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -600,8 +801,14 @@
       <c r="D11">
         <v>21.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -614,8 +821,14 @@
       <c r="D12">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -628,8 +841,14 @@
       <c r="D13">
         <v>18.53</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -642,8 +861,14 @@
       <c r="D14">
         <v>12.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -656,8 +881,14 @@
       <c r="D15">
         <v>15.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -670,8 +901,14 @@
       <c r="D16">
         <v>9.07</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -684,8 +921,14 @@
       <c r="D17">
         <v>9.9499999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -698,8 +941,14 @@
       <c r="D18">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -712,8 +961,14 @@
       <c r="D19">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -726,8 +981,14 @@
       <c r="D20">
         <v>17.64</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -740,8 +1001,14 @@
       <c r="D21">
         <v>11.47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -754,8 +1021,14 @@
       <c r="D22">
         <v>27.06</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -768,8 +1041,14 @@
       <c r="D23">
         <v>15.46</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -782,8 +1061,14 @@
       <c r="D24">
         <v>13.88</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -795,6 +1080,12 @@
       </c>
       <c r="D25">
         <v>16.61</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
